--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-341912.1599244533</v>
+        <v>-344525.4461901283</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>117.6379423883835</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>405.3232974734207</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>351.5121897985827</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.239653880475772</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>206.1715588440121</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>49.89168221329241</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>166.1327403680461</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.6976403637502</v>
       </c>
       <c r="W7" t="n">
-        <v>255.877579743525</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>221.7114038064775</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>92.97838031900595</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>60.59704512062894</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>168.7412077509116</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>26.05480806223633</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>102.7673426709139</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1675592379414</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.0491732272548</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182137</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>83.4472944825329</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>175.9612165073978</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>32.57570591153918</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652673</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.040280862503</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C2" t="n">
-        <v>1682.077763922091</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.812065315341</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>938.0238127170967</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>527.0379079274892</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926625</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926625</v>
+        <v>1751.514415604688</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926625</v>
+        <v>1751.514415604688</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>119.9870984135515</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>304.7087196946015</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>599.4122767260733</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.1898500774754</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C4" t="n">
-        <v>474.2536671495685</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D4" t="n">
-        <v>474.2536671495685</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>326.3405735671754</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>326.3405735671754</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>158.354108875454</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1139.073682735899</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077151</v>
+        <v>849.6565126989382</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8383149077151</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.8383149077151</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1363.66924633713</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>994.7067293967186</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>994.7067293967186</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>994.7067293967186</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>583.7208246071111</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>168.0160743314</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087291</v>
@@ -4580,7 +4580,7 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>1363.66924633713</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.6534264926422</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>620.7172435647353</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="W7" t="n">
-        <v>789.6534264926422</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>789.6534264926422</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.6534264926422</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>652.5759934195837</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>652.5759934195837</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>652.5759934195837</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>652.5759934195837</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>645.6304926703802</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2343.722565048843</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="Y8" t="n">
-        <v>652.5759934195837</v>
+        <v>1990.953909778728</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.0385070447395</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="C10" t="n">
-        <v>350.1023241168326</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671838</v>
+        <v>767.0814070827663</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302233</v>
+        <v>477.6642370458057</v>
       </c>
       <c r="X10" t="n">
-        <v>519.0385070447395</v>
+        <v>477.6642370458057</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.0385070447395</v>
+        <v>307.2185726509455</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2416.701466165879</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,16 +5595,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257324</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257324</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2295.62718338566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2076.025718408601</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1786.950491752799</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1532.266003546912</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1799.722477977784</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1545.037989771897</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1255.620819734936</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1027.631268836919</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6446,10 +6446,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7798,7 +7798,7 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.454437538929454</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0.9556134883062271</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.36925650589387</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.599014736979306e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>265.0958992750971</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.224405299533316</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>36.39502219848715</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.3662399606949</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856646</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>36.41624546988369</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>78.25894333073069</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.7828069546825</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>97.5789915191117</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.2232578818464</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>186.0089474405556</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-7.978062782642133e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915024</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="M2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="N2" t="n">
-        <v>282501.3098915021</v>
-      </c>
       <c r="O2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524992</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26439,19 +26439,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719679</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719727</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481314</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1030843.798625013</v>
+        <v>-1031099.667864423</v>
       </c>
       <c r="C6" t="n">
-        <v>61312.98346590987</v>
+        <v>61312.98346591019</v>
       </c>
       <c r="D6" t="n">
-        <v>61312.9834659101</v>
+        <v>61312.98346591007</v>
       </c>
       <c r="E6" t="n">
-        <v>-333614.0300186704</v>
+        <v>-333648.767944106</v>
       </c>
       <c r="F6" t="n">
-        <v>173871.4116058755</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="G6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="H6" t="n">
-        <v>173871.4116058755</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="I6" t="n">
-        <v>173871.4116058755</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="J6" t="n">
-        <v>6266.233795893</v>
+        <v>6231.49587045706</v>
       </c>
       <c r="K6" t="n">
-        <v>173871.4116058756</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="L6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="M6" t="n">
-        <v>41264.11787694883</v>
+        <v>41229.37995151286</v>
       </c>
       <c r="N6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804398</v>
       </c>
       <c r="O6" t="n">
         <v>149274.5578801389</v>
       </c>
       <c r="P6" t="n">
-        <v>168702.2758737707</v>
+        <v>168702.2758737708</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,40 +26957,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>214.6502279299749</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>18.21891087988632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>146.0118552746531</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>45.96608447981586</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>251.126870349113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>203.5983603104229</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.44000296007783</v>
       </c>
       <c r="W7" t="n">
-        <v>30.64541859306598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>189.8362989664765</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>234.7738781511289</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.1126102684082</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>49.84344560118319</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330459</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946642</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>69.43465842984691</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>187.5431097317911</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35030,13 +35030,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>280.0487856294262</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113309</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
